--- a/biology/Zoologie/Decticelle/Decticelle.xlsx
+++ b/biology/Zoologie/Decticelle/Decticelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Decticelle est un nom vernaculaire ambigu désignant en français plusieurs genres et espèces d'insectes orthoptères de la sous-famille des Tettigoniinae. Les Decticelles sont des sauterelles de taille relativement modeste si on les compare aux Dectiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste de Decticelles d'Europe (à compléter)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>genre Anonconotus
 Anonconotus alpinus (Yersin, 1858) - la Decticelle montagnarde
@@ -527,7 +541,7 @@
 Pholidoptera aptera (Fabricius, 1793) - la Decticelle aptère
 Pholidoptera fallax (Fischer, 1853) - la Decticelle trompeuse
 Pholidoptera griseoaptera (De Geer, 1773) - la Decticelle cendrée
-genre Platycleis Fieber, 1853 (Platycleis group [nom temporaire] Brunner von Wattenwyl, 1893)[1]
+genre Platycleis Fieber, 1853 (Platycleis group [nom temporaire] Brunner von Wattenwyl, 1893)
 Platycleis affinis (Fieber, 1853) - la Decticelle côtière
 Platycleis albopunctata (Goeze, 1778) - la Decticelle chagrinée
 genre Rhacocleis
